--- a/Souq/src/price/Souq/excel_13_colares.xlsx
+++ b/Souq/src/price/Souq/excel_13_colares.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,989 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>COLAR ARA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-ara-02-09-04-821-011.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>89,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>39,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>COLAR AYANA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-ayana-02-09-04-830-003.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>129,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>59,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>COLAR ANGELUZ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-angeluz-02-09-04-838-011.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>79,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>39,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>COLAR APUS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-apus-02-09-04-823-011.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>89,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>39,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>COLAR AYANA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-ayana-02-09-04-830-006.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>129,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>59,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>COLAR AYANA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-ayana-02-09-04-830-009.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>129,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>59,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>COLAR PYXIS</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-pyxis-02-09-04-822-011.html</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>COLAR BAHIA PRETO TA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-bahia-ta-02-09-04-683-002.html</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>189,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>79,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COLAR HELGA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-helga-02-09-04-820-008.html</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>89,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>COLAR GUADALAJARA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-guadalajara-02-09-04-622-007.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>139,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>COLAR JENIFER 18K</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-jenifer-18k-02-09-04-916-011.html</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>298,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>COLAR HELGA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-helga-02-09-04-820-002.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>98,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>COLAR ANE</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-ane-02-09-04-862-006.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>239,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>118,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>COLAR RAJA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-lulu-02-09-04-950-035.html</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>COLAR AILEEN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-aileen-02-09-04-952-055.html</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>188,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>94,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>COLAR BERG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-berg-02-09-04-403-004.html</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>129,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>38,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>COLAR UGNI NATURAL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-ugni-natural-02-09-04-401-024.html</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>79,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>COLAR MARIE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-marie-02-09-04-791-011.html</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>149,00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>69,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>COLAR BANGALORE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-bangalore-02-09-04-536-029.html</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>169,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>47,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>COLAR PALERMO</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-palermo-02-09-04-558-006.html</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>179,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>47,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>COLAR FIJI</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-fiji-02-09-04-588-007.html</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>129,00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>38,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>COLAR JAISALMER</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-jaisalmer-02-09-04-778-029.html</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>329,00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>119,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>COLAR IOANNE</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-ioanne-02-09-04-808-007.html</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>149,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>COLAR RIHANNA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-rihanna-02-09-04-777-012.html</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>479,00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>COLAR YABULI</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-yabuli-02-09-04-650-007.html</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>199,00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>58,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>COLAR THANE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-thane-02-09-04-800-028.html</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>178,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Colares</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/acessorios/colares.html?p=1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>COLAR KALYAN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/colar-kalyan-02-09-04-799-002.html</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>439,00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>218,00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
